--- a/biology/Médecine/Jean_de_L'Espine/Jean_de_L'Espine.xlsx
+++ b/biology/Médecine/Jean_de_L'Espine/Jean_de_L'Espine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_de_L%27Espine</t>
+          <t>Jean_de_L'Espine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean de L'Espine (vers 1500 - vers 1570) est un médecin et astrologue français de la Renaissance. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_de_L%27Espine</t>
+          <t>Jean_de_L'Espine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean de L'Espine fut le médecin de Marguerite de Navarre.
 Il fit construire au Mans, entre 1520 et 1525, au 69 de la Grand-Rue, une maison, dite d'Adam et Ève, toujours visible.
-Jacques Peletier du Mans qui l'a connu car il fréquentait la demeure de son père, le présente ainsi : « Cenomanenses Medicos, Ioannem Spineum Astrologum »[1].
+Jacques Peletier du Mans qui l'a connu car il fréquentait la demeure de son père, le présente ainsi : « Cenomanenses Medicos, Ioannem Spineum Astrologum ».
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_de_L%27Espine</t>
+          <t>Jean_de_L'Espine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Almanach Jehan de Lespine docteur en medicine calcule soubz le meridional de la cite et ville Dumans pais &amp; autres villes circonvoysines. Pour lan mil cinq cens trente et quatre, Imprime a Paris : par Jaques Nyverd imprimeur libraire jure de luniversite de Paris demourant en la rue de la Juyfrie a lymaige sainct Pierre. Et a la premiere porte du Palays pour Pierre Lasne libraire demourant audict lieu Dumans en la grant Rue pres le Pillier Vert, [1534][2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Almanach Jehan de Lespine docteur en medicine calcule soubz le meridional de la cite et ville Dumans pais &amp; autres villes circonvoysines. Pour lan mil cinq cens trente et quatre, Imprime a Paris : par Jaques Nyverd imprimeur libraire jure de luniversite de Paris demourant en la rue de la Juyfrie a lymaige sainct Pierre. Et a la premiere porte du Palays pour Pierre Lasne libraire demourant audict lieu Dumans en la grant Rue pres le Pillier Vert, </t>
         </is>
       </c>
     </row>
